--- a/project/ngoc/co so du lieu.xlsx
+++ b/project/ngoc/co so du lieu.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diendanhoctap\project\ngoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650"/>
   </bookViews>
@@ -353,12 +358,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -378,7 +383,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -386,13 +391,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -400,7 +405,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -488,10 +493,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -513,6 +518,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -561,7 +569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,7 +604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,24 +815,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="4.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -836,7 +844,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -846,7 +854,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -856,7 +864,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -868,7 +876,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -878,7 +886,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -888,7 +896,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
@@ -900,7 +908,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="16" t="s">
         <v>12</v>
@@ -912,7 +920,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="16" t="s">
         <v>13</v>
@@ -924,7 +932,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="16" t="s">
         <v>14</v>
@@ -936,7 +944,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -946,7 +954,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -972,7 +980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -1014,7 +1022,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -1034,7 +1042,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -1054,56 +1062,56 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1113,7 +1121,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>1</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>2</v>
       </c>
@@ -1183,7 +1191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>3</v>
       </c>
@@ -1203,7 +1211,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>4</v>
       </c>
@@ -1225,7 +1233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>5</v>
       </c>
@@ -1245,7 +1253,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>6</v>
       </c>
@@ -1263,7 +1271,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>7</v>
       </c>
@@ -1281,7 +1289,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>8</v>
       </c>
@@ -1299,55 +1307,55 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1357,7 +1365,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>1</v>
       </c>
@@ -1405,7 +1413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>2</v>
       </c>
@@ -1421,7 +1429,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>3</v>
       </c>
@@ -1441,7 +1449,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>4</v>
       </c>
@@ -1459,7 +1467,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>5</v>
       </c>
@@ -1477,55 +1485,55 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1535,7 +1543,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>2</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>1</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>2</v>
       </c>
@@ -1603,7 +1611,7 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>3</v>
       </c>
@@ -1623,7 +1631,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>4</v>
       </c>
@@ -1641,7 +1649,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>5</v>
       </c>
@@ -1659,55 +1667,55 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1717,7 +1725,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>2</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>1</v>
       </c>
@@ -1765,7 +1773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>2</v>
       </c>
@@ -1785,7 +1793,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>3</v>
       </c>
@@ -1805,7 +1813,7 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>4</v>
       </c>
@@ -1825,7 +1833,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>5</v>
       </c>
@@ -1843,7 +1851,7 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>6</v>
       </c>
@@ -1861,7 +1869,7 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>7</v>
       </c>
@@ -1879,55 +1887,55 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1937,7 +1945,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
@@ -1963,7 +1971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>1</v>
       </c>
@@ -1983,7 +1991,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>2</v>
       </c>
@@ -2003,7 +2011,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>3</v>
       </c>
@@ -2023,55 +2031,55 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2081,7 +2089,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>1</v>
       </c>
@@ -2129,7 +2137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>2</v>
       </c>
@@ -2149,7 +2157,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>3</v>
       </c>
@@ -2169,7 +2177,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>4</v>
       </c>
@@ -2187,7 +2195,7 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>5</v>
       </c>
@@ -2207,7 +2215,7 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>6</v>
       </c>
@@ -2225,55 +2233,55 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2283,7 +2291,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>2</v>
       </c>
@@ -2309,7 +2317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>1</v>
       </c>
@@ -2329,7 +2337,7 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>2</v>
       </c>
@@ -2349,7 +2357,7 @@
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>3</v>
       </c>
@@ -2369,7 +2377,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>4</v>
       </c>
@@ -2389,7 +2397,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>5</v>
       </c>
@@ -2409,6 +2417,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
     <mergeCell ref="B108:H108"/>
     <mergeCell ref="A80:H80"/>
     <mergeCell ref="B81:H81"/>
@@ -2421,28 +2451,6 @@
     <mergeCell ref="A105:H105"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project/ngoc/co so du lieu.xlsx
+++ b/project/ngoc/co so du lieu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
   <si>
     <t>THIẾT KẾ CƠ SỞ DỮ LIỆU</t>
   </si>
@@ -353,18 +353,62 @@
   </si>
   <si>
     <t>Tình trạng tin</t>
+  </si>
+  <si>
+    <t>hinh_anh</t>
+  </si>
+  <si>
+    <t>ngay_tao</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>mã tài liệu</t>
+  </si>
+  <si>
+    <t>id_chu_de</t>
+  </si>
+  <si>
+    <t>mã chủ đề</t>
+  </si>
+  <si>
+    <t>tiêu đề</t>
+  </si>
+  <si>
+    <t>nội dung</t>
+  </si>
+  <si>
+    <t>liên kết</t>
+  </si>
+  <si>
+    <t>ngày tạo</t>
+  </si>
+  <si>
+    <t>thứ tự</t>
+  </si>
+  <si>
+    <t>tình trạng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,13 +465,33 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -456,32 +520,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,16 +560,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -813,23 +895,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H115"/>
+  <dimension ref="A2:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:H37"/>
+    <sheetView tabSelected="1" topLeftCell="D88" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="11"/>
+    <col min="7" max="7" width="10.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="11" customWidth="1"/>
+    <col min="9" max="11" width="9.125" style="11"/>
+    <col min="12" max="12" width="8.125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="11" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="11"/>
+    <col min="18" max="18" width="11.75" style="11" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="11" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1064,52 +1156,52 @@
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -1233,7 +1325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>5</v>
       </c>
@@ -1271,7 +1363,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>7</v>
       </c>
@@ -1308,52 +1400,52 @@
       <c r="H32" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
@@ -1486,52 +1578,52 @@
       <c r="H45" s="9"/>
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
@@ -1668,52 +1760,52 @@
       <c r="H58" s="9"/>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -1888,52 +1980,52 @@
       <c r="H73" s="9"/>
     </row>
     <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
@@ -2032,52 +2124,52 @@
       <c r="H88" s="9"/>
     </row>
     <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
@@ -2115,7 +2207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>1</v>
       </c>
@@ -2137,7 +2229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>2</v>
       </c>
@@ -2157,7 +2249,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>3</v>
       </c>
@@ -2176,8 +2268,16 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+    </row>
+    <row r="100" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>4</v>
       </c>
@@ -2194,8 +2294,32 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>5</v>
       </c>
@@ -2214,8 +2338,30 @@
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M101" s="18">
+        <v>1</v>
+      </c>
+      <c r="N101" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O101" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P101" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q101" s="18">
+        <v>11</v>
+      </c>
+      <c r="R101" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S101" s="18"/>
+      <c r="T101" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>6</v>
       </c>
@@ -2232,56 +2378,184 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
-    </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
+      <c r="M102" s="18">
+        <v>2</v>
+      </c>
+      <c r="N102" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O102" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P102" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q102" s="18">
+        <v>11</v>
+      </c>
+      <c r="R102" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="S102" s="18"/>
+      <c r="T102" s="18"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M103" s="18">
+        <v>3</v>
+      </c>
+      <c r="N103" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="O103" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="P103" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q103" s="18">
+        <v>255</v>
+      </c>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="18"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M104" s="18">
+        <v>4</v>
+      </c>
+      <c r="N104" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="O104" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P104" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="18"/>
+      <c r="T104" s="18"/>
+    </row>
+    <row r="105" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="M105" s="18">
+        <v>5</v>
+      </c>
+      <c r="N105" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="O105" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="P105" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q105" s="18">
+        <v>500</v>
+      </c>
+      <c r="R105" s="18"/>
+      <c r="S105" s="18"/>
+      <c r="T105" s="18"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="M106" s="18">
+        <v>6</v>
+      </c>
+      <c r="N106" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O106" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P106" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q106" s="18">
+        <v>255</v>
+      </c>
+      <c r="R106" s="18"/>
+      <c r="S106" s="18"/>
+      <c r="T106" s="18"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="M107" s="18">
+        <v>7</v>
+      </c>
+      <c r="N107" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O107" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="P107" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="18"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="M108" s="18">
+        <v>8</v>
+      </c>
+      <c r="N108" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="O108" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P108" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q108" s="18">
+        <v>11</v>
+      </c>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2290,8 +2564,26 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="M109" s="18">
+        <v>9</v>
+      </c>
+      <c r="N109" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O109" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P109" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q109" s="18">
+        <v>11</v>
+      </c>
+      <c r="R109" s="18"/>
+      <c r="S109" s="18"/>
+      <c r="T109" s="18"/>
+    </row>
+    <row r="110" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>2</v>
       </c>
@@ -2317,7 +2609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>1</v>
       </c>
@@ -2337,7 +2629,7 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>2</v>
       </c>
@@ -2417,16 +2709,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B107:H107"/>
     <mergeCell ref="B64:H64"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="B36:H36"/>
@@ -2439,19 +2733,18 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="B62:H62"/>
     <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="A91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B94:H94"/>
-    <mergeCell ref="A105:H105"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project/ngoc/co so du lieu.xlsx
+++ b/project/ngoc/co so du lieu.xlsx
@@ -346,9 +346,6 @@
     <t>thu_tu</t>
   </si>
   <si>
-    <t>Đường dẫn liên kết</t>
-  </si>
-  <si>
     <t>Thứ tự loại tin</t>
   </si>
   <si>
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t>tình trạng</t>
+  </si>
+  <si>
+    <t>Đường dẫn</t>
   </si>
 </sst>
 </file>
@@ -557,21 +557,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,6 +573,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D88" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -910,7 +910,7 @@
     <col min="5" max="5" width="9" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="11" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="11" customWidth="1"/>
     <col min="9" max="11" width="9.125" style="11"/>
     <col min="12" max="12" width="8.125" style="11" customWidth="1"/>
     <col min="13" max="13" width="4.625" style="11" bestFit="1" customWidth="1"/>
@@ -925,26 +925,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -957,26 +957,26 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -989,52 +989,52 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -1156,52 +1156,52 @@
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -1400,52 +1400,52 @@
       <c r="H32" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
@@ -1529,7 +1529,7 @@
         <v>106</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>22</v>
@@ -1549,7 +1549,7 @@
         <v>107</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>17</v>
@@ -1567,7 +1567,7 @@
         <v>72</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>17</v>
@@ -1578,52 +1578,52 @@
       <c r="H45" s="9"/>
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
@@ -1760,52 +1760,52 @@
       <c r="H58" s="9"/>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -1980,52 +1980,52 @@
       <c r="H73" s="9"/>
     </row>
     <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
@@ -2124,52 +2124,52 @@
       <c r="H88" s="9"/>
     </row>
     <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
@@ -2338,26 +2338,26 @@
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
-      <c r="M101" s="18">
+      <c r="M101" s="13">
         <v>1</v>
       </c>
-      <c r="N101" s="18" t="s">
+      <c r="N101" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O101" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="O101" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="P101" s="17" t="s">
+      <c r="P101" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q101" s="18">
+      <c r="Q101" s="13">
         <v>11</v>
       </c>
-      <c r="R101" s="18" t="s">
+      <c r="R101" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18" t="s">
+      <c r="S101" s="13"/>
+      <c r="T101" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2378,182 +2378,182 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
-      <c r="M102" s="18">
+      <c r="M102" s="13">
         <v>2</v>
       </c>
-      <c r="N102" s="20" t="s">
+      <c r="N102" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O102" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="O102" s="18" t="s">
+      <c r="P102" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>11</v>
+      </c>
+      <c r="R102" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M103" s="13">
+        <v>3</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O103" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="P102" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q102" s="18">
-        <v>11</v>
-      </c>
-      <c r="R102" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="S102" s="18"/>
-      <c r="T102" s="18"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M103" s="18">
-        <v>3</v>
-      </c>
-      <c r="N103" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="O103" s="18" t="s">
+      <c r="P103" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q103" s="13">
+        <v>255</v>
+      </c>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M104" s="13">
+        <v>4</v>
+      </c>
+      <c r="N104" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O104" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="P103" s="18" t="s">
+      <c r="P104" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+    </row>
+    <row r="105" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="M105" s="13">
+        <v>5</v>
+      </c>
+      <c r="N105" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P105" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q103" s="18">
-        <v>255</v>
-      </c>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M104" s="18">
-        <v>4</v>
-      </c>
-      <c r="N104" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="O104" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="P104" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q104" s="18"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="18"/>
-      <c r="T104" s="18"/>
-    </row>
-    <row r="105" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="M105" s="18">
-        <v>5</v>
-      </c>
-      <c r="N105" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="O105" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="P105" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q105" s="18">
+      <c r="Q105" s="13">
         <v>500</v>
       </c>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
-      <c r="T105" s="18"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="M106" s="18">
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="M106" s="13">
         <v>6</v>
       </c>
-      <c r="N106" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="O106" s="18" t="s">
+      <c r="N106" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O106" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="P106" s="18" t="s">
+      <c r="P106" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q106" s="18">
+      <c r="Q106" s="13">
         <v>255</v>
       </c>
-      <c r="R106" s="18"/>
-      <c r="S106" s="18"/>
-      <c r="T106" s="18"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="M107" s="18">
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="M107" s="13">
         <v>7</v>
       </c>
-      <c r="N107" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="O107" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="P107" s="18" t="s">
+      <c r="N107" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O107" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P107" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
-      <c r="T107" s="18"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="M108" s="18">
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="M108" s="13">
         <v>8</v>
       </c>
-      <c r="N108" s="22" t="s">
+      <c r="N108" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O108" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P108" s="18" t="s">
+      <c r="O108" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P108" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q108" s="18">
+      <c r="Q108" s="13">
         <v>11</v>
       </c>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
@@ -2564,24 +2564,24 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="M109" s="18">
+      <c r="M109" s="13">
         <v>9</v>
       </c>
-      <c r="N109" s="21" t="s">
+      <c r="N109" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="O109" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="P109" s="18" t="s">
+      <c r="O109" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P109" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q109" s="18">
+      <c r="Q109" s="13">
         <v>11</v>
       </c>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="T109" s="18"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
     </row>
     <row r="110" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
@@ -2709,6 +2709,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
     <mergeCell ref="B108:H108"/>
     <mergeCell ref="A80:H80"/>
     <mergeCell ref="B81:H81"/>
@@ -2721,28 +2743,6 @@
     <mergeCell ref="A105:H105"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
